--- a/mapping/BAO_REX.xlsx
+++ b/mapping/BAO_REX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>BAO_IRI</t>
   </si>
@@ -28,6 +28,9 @@
     <t>REX_DESC</t>
   </si>
   <si>
+    <t>REX_DEF</t>
+  </si>
+  <si>
     <t>http://www.bioassayontology.org/bao#BAO_0000050</t>
   </si>
   <si>
@@ -110,6 +113,9 @@
   </si>
   <si>
     <t>{'label': 'non-competitive inhibition'}</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -480,13 +486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,124 +505,148 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
